--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2407285.433710385</v>
+        <v>-2409868.465780113</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>25.18465006693101</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>103.645016151011</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.069212393384</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.69498316092</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>231.2622415507118</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>72.75406055538306</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>151.2796191728997</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>91.86872394650868</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,10 +978,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>158.8661859444883</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>144.1406215660494</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>146.5990350281158</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>55.60418971213189</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>147.3013988713529</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717412</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182156</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>40.53421095546616</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.799772605716782</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444134</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>21.23835815356475</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>42.71572132711285</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>13.72582864853737</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428129</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678006</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>134.3391137331272</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149753</v>
+        <v>171.0385136149758</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316658</v>
+        <v>158.4533545316663</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512504</v>
+        <v>139.8220064512509</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796072</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559692</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253068</v>
+        <v>119.2583832054401</v>
       </c>
       <c r="H28" t="n">
-        <v>131.5012462792619</v>
+        <v>131.5012462792624</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.47236975160403</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014315965</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>118.7272197445598</v>
+        <v>172.2328194346831</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603263</v>
+        <v>208.6119837603268</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3910078222821</v>
+        <v>277.3910078222826</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>243.3441767568665</v>
       </c>
       <c r="W28" t="n">
-        <v>277.729531769629</v>
+        <v>277.7295317696295</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9161888220752</v>
+        <v>216.9161888220757</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851328</v>
+        <v>209.7911867851333</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308917</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.770455879627</v>
+        <v>2001.643962205201</v>
       </c>
       <c r="C2" t="n">
-        <v>921.770455879627</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>921.7704558796268</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>817.078520373555</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943749</v>
+        <v>2388.243802269322</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387307</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332751</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,19 +4413,19 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
@@ -4446,7 +4446,7 @@
         <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>313.9544330261738</v>
+        <v>847.3980557622424</v>
       </c>
       <c r="C4" t="n">
-        <v>313.9544330261738</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4513,25 +4513,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>495.6028978564135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>495.6028978564135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>495.6028978564135</v>
+        <v>847.3980557622424</v>
       </c>
       <c r="Y4" t="n">
-        <v>495.6028978564135</v>
+        <v>847.3980557622424</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>1771.41801219738</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.316163281155</v>
+        <v>1771.41801219738</v>
       </c>
       <c r="D5" t="n">
-        <v>654.0504646744046</v>
+        <v>1413.152313590629</v>
       </c>
       <c r="E5" t="n">
-        <v>268.2622120761603</v>
+        <v>1027.364060992385</v>
       </c>
       <c r="F5" t="n">
-        <v>261.3167113269569</v>
+        <v>616.3781562027775</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>201.305706047774</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.0178522615</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285688</v>
+        <v>2158.017852261502</v>
       </c>
     </row>
     <row r="6">
@@ -4626,7 +4626,7 @@
         <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
         <v>458.9189605332749</v>
@@ -4635,16 +4635,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.5121164321834</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="C7" t="n">
-        <v>66.5121164321834</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>583.6045342045572</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>294.5016673302007</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V7" t="n">
-        <v>294.5016673302007</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W7" t="n">
-        <v>294.5016673302007</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="X7" t="n">
-        <v>66.5121164321834</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.5121164321834</v>
+        <v>377.0996507379417</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1767.87852028569</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C8" t="n">
-        <v>1398.916003345278</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D8" t="n">
-        <v>1040.650304738528</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E8" t="n">
-        <v>1040.650304738528</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>629.6643999489202</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>214.5919497939166</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2332.07795407525</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.87852028569</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.619250712236</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>359.619250712236</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>359.619250712236</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4987,25 +4987,25 @@
         <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450114</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>729.2011216450114</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>729.2011216450114</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>580.4118298557661</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>580.4118298557661</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>580.4118298557661</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.619250712236</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,31 +5051,31 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1522.21291626627</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2074.122646505557</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2497.745796000625</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400714</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277324</v>
+        <v>344.917417812165</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>344.917417812165</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>344.917417812165</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270449</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770292</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782929</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038318</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179772</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854703</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648816</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648816</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750799</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072689</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5504,16 +5504,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075813</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400718</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400718</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803618</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703115</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5735,13 +5735,13 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380887</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101818</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D22" t="n">
-        <v>422.790329297846</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E22" t="n">
-        <v>274.8772357154529</v>
+        <v>344.917417812164</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.917417812164</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683284</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="23">
@@ -5978,25 +5978,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362676</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797091</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111707</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,13 +6063,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6078,13 +6078,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>847.6442739835328</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>847.6442739835328</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6212,25 +6212,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>484.8243144841084</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>980.1499206998673</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.528408326419</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.528408326419</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>963.2867201419732</v>
+        <v>721.6018753906221</v>
       </c>
       <c r="C28" t="n">
-        <v>803.2328266756441</v>
+        <v>561.5479819242923</v>
       </c>
       <c r="D28" t="n">
-        <v>661.9984767248861</v>
+        <v>420.3136319735338</v>
       </c>
       <c r="E28" t="n">
-        <v>522.9676726040708</v>
+        <v>420.3136319735338</v>
       </c>
       <c r="F28" t="n">
-        <v>384.9600145677383</v>
+        <v>420.3136319735338</v>
       </c>
       <c r="G28" t="n">
-        <v>226.646204744196</v>
+        <v>299.8506186347057</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>167.021076938481</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>182.7582133795881</v>
+        <v>182.7582133795876</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064192</v>
+        <v>453.1530078064178</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836518</v>
+        <v>852.2571338836498</v>
       </c>
       <c r="M28" t="n">
-        <v>1282.972368515979</v>
+        <v>1282.972368515976</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.08777207728</v>
+        <v>1709.087772077276</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687557</v>
+        <v>2087.322584687553</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.703572162408</v>
+        <v>2388.703572162404</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.6073387906</v>
+        <v>2516.607338790595</v>
       </c>
       <c r="R28" t="n">
-        <v>2458.44392450458</v>
+        <v>2516.607338790595</v>
       </c>
       <c r="S28" t="n">
-        <v>2338.517439914116</v>
+        <v>2342.634793907077</v>
       </c>
       <c r="T28" t="n">
-        <v>2127.798264398635</v>
+        <v>2131.915618391595</v>
       </c>
       <c r="U28" t="n">
-        <v>1847.60532720441</v>
+        <v>1851.72268119737</v>
       </c>
       <c r="V28" t="n">
-        <v>1847.60532720441</v>
+        <v>1605.920482453061</v>
       </c>
       <c r="W28" t="n">
-        <v>1567.070446629027</v>
+        <v>1325.385601877677</v>
       </c>
       <c r="X28" t="n">
-        <v>1347.963185192587</v>
+        <v>1106.278340441237</v>
       </c>
       <c r="Y28" t="n">
-        <v>1136.052895510635</v>
+        <v>894.3680507592845</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6549,19 +6549,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
         <v>533.5814564942654</v>
@@ -6619,16 +6619,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
@@ -6643,7 +6643,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547834</v>
@@ -6652,7 +6652,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,13 +6880,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
@@ -6895,13 +6895,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2389.155899672379</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7114,16 +7114,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838286</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,22 +7360,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>2716.927329289434</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>2817.800993781637</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2978.493192213311</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>2834.08695624706</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>2708.50026379638</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>2585.117117175644</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>2462.75711663939</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>2320.090964315926</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>2202.90908011978</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>2145.35232372935</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>2249.630143176794</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>2535.361206719452</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>2949.801601912511</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
-        <v>3395.853105660665</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>3837.304778337793</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>4230.875860063898</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>4547.593116654575</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>4648.317395612652</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>4489.992508229213</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>4294.92099021381</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>4030.375710519664</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>3800.221169275433</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>3535.333946200129</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>3331.874342263768</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>3135.611710081894</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>340.0882417040766</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>278.2853539212508</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -22762,13 +22762,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>20.87540177311624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>152.9555948336541</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>105.899751691103</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405071</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>146.0084629450631</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>105.8997516910995</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194236</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>131.6952193743939</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>138.4949402405082</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>84.24553961896756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>137.6404960796077</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>136.6275814559698</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>37.47228851986722</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160349</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.58178014316019</v>
       </c>
       <c r="S28" t="n">
-        <v>53.5055996901228</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>243.344176756866</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1394731.376399663</v>
+        <v>1394731.376399662</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32904.09773687494</v>
+        <v>32904.09773687493</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="E2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="F2" t="n">
         <v>40357.32998450028</v>
       </c>
       <c r="G2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="H2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="I2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="J2" t="n">
-        <v>40608.90191777584</v>
+        <v>40608.90191777581</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="L2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
+        <v>41052.08849321419</v>
+      </c>
+      <c r="P2" t="n">
         <v>41052.0884932142</v>
-      </c>
-      <c r="P2" t="n">
-        <v>41052.08849321419</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.9756508471</v>
+        <v>224565.9756508467</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006219</v>
+        <v>12392.94474006257</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569611</v>
+        <v>7034.773253569206</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006218</v>
+        <v>12392.94474006258</v>
       </c>
     </row>
     <row r="4">
@@ -26418,7 +26418,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405252</v>
@@ -26427,34 +26427,34 @@
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
+        <v>14826.6960418674</v>
+      </c>
+      <c r="H4" t="n">
         <v>14826.69604186736</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14826.69604186738</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>17720.18476944078</v>
+        <v>17720.18476944061</v>
       </c>
       <c r="K4" t="n">
-        <v>22817.55530496086</v>
+        <v>22817.55530496082</v>
       </c>
       <c r="L4" t="n">
+        <v>22817.55530496083</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22817.55530496083</v>
+      </c>
+      <c r="N4" t="n">
         <v>22817.55530496082</v>
       </c>
-      <c r="M4" t="n">
-        <v>22817.55530496088</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22817.55530496083</v>
-      </c>
       <c r="O4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496082</v>
       </c>
       <c r="P4" t="n">
         <v>22817.55530496083</v>
@@ -26491,7 +26491,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101861.7877647251</v>
+        <v>101861.787764725</v>
       </c>
       <c r="K5" t="n">
         <v>103164.1158539154</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1404359.235541117</v>
+        <v>-1404766.635078934</v>
       </c>
       <c r="C6" t="n">
         <v>-160478.5961722317</v>
@@ -26528,40 +26528,40 @@
         <v>-160478.5961722317</v>
       </c>
       <c r="E6" t="n">
-        <v>-401004.3576886292</v>
+        <v>-401039.0956140652</v>
       </c>
       <c r="F6" t="n">
-        <v>-75591.89588127416</v>
+        <v>-75626.63380670988</v>
       </c>
       <c r="G6" t="n">
-        <v>-75591.89588127416</v>
+        <v>-75626.63380670991</v>
       </c>
       <c r="H6" t="n">
-        <v>-75591.89588127419</v>
+        <v>-75626.63380670988</v>
       </c>
       <c r="I6" t="n">
-        <v>-75591.89588127418</v>
+        <v>-75626.63380670988</v>
       </c>
       <c r="J6" t="n">
-        <v>-303539.0462672372</v>
+        <v>-303561.2055960085</v>
       </c>
       <c r="K6" t="n">
-        <v>-97322.52740572429</v>
+        <v>-97322.5274057246</v>
       </c>
       <c r="L6" t="n">
-        <v>-84929.58266566198</v>
+        <v>-84929.58266566205</v>
       </c>
       <c r="M6" t="n">
         <v>-169984.6106011738</v>
       </c>
       <c r="N6" t="n">
-        <v>-84929.58266566205</v>
+        <v>-84929.58266566203</v>
       </c>
       <c r="O6" t="n">
-        <v>-91964.35591923165</v>
+        <v>-91964.35591923124</v>
       </c>
       <c r="P6" t="n">
-        <v>-97322.52740572422</v>
+        <v>-97322.5274057246</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507774</v>
+        <v>15.49118092507821</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566962014</v>
+        <v>8.793466566961508</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507773</v>
+        <v>15.49118092507823</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507774</v>
+        <v>15.49118092507821</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>259.6421064805537</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>202.7390404408118</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>8.380635154139526</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27822,22 +27822,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>75.40832771011978</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>148.0087293592046</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>314.1269109663372</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,7 +28059,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>104.8362444524751</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-9.831888791845538e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566962007</v>
+        <v>8.793466566961493</v>
       </c>
     </row>
     <row r="29">
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>195.8560084902135</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>569.57231719539</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,13 +32564,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>225.4828684302377</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>369.1789913099994</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817556</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>381.6404378718153</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33497,13 +33497,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>150.7833302198383</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>268.5330199802463</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33971,13 +33971,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>211.5147800288493</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181832</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.87423440419198</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899076</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295076</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>426.9760727509455</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,13 +36212,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>82.88662398579324</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>226.582746865555</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>243.7989988974563</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991545</v>
+        <v>89.83994982991486</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765971</v>
+        <v>273.1260549765964</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860935</v>
+        <v>403.1354808860929</v>
       </c>
       <c r="M28" t="n">
-        <v>435.0658935680073</v>
+        <v>435.0658935680066</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568696</v>
+        <v>430.4195995568689</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730076</v>
+        <v>382.0553662730069</v>
       </c>
       <c r="P28" t="n">
-        <v>304.425239873587</v>
+        <v>304.4252398735865</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.1957238668604</v>
+        <v>129.1957238668599</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37145,13 +37145,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>23.94570355317166</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.5512458942248</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>77.5403726145191</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>432.0572943778175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,16 +37938,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980851</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>101.8925903961649</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
